--- a/fuentes/contenidos/grado08/guion06/Escaleta_LE_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta_LE_08_06_CO.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_06_CO\Escaleta Proceso y Control\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1202,42 +1197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1249,12 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1280,9 +1237,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1291,9 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1304,58 +1255,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,14 +1318,71 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1466,7 +1444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,7 +1479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1710,2633 +1688,2633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V260"/>
+  <dimension ref="A1:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="72" customWidth="1"/>
-    <col min="10" max="10" width="45.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.7109375" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11" style="61" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="62" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="53" t="s">
+      <c r="R1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="49" t="s">
+      <c r="S1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="T1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="U1" s="42" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="18" t="s">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="50"/>
-      <c r="V2"/>
-    </row>
-    <row r="3" spans="1:22" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="43"/>
+    </row>
+    <row r="3" spans="1:21" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="51">
         <v>1</v>
       </c>
-      <c r="I3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="32" t="s">
+      <c r="I3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="K3" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="12">
         <v>6</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T3" s="45" t="s">
+      <c r="T3" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="34" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="51">
         <v>2</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="36" t="s">
+      <c r="O4" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="44">
+      <c r="Q4" s="12">
         <v>6</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S4" s="28" t="s">
+      <c r="S4" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="U4" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="51">
         <v>3</v>
       </c>
-      <c r="I5" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="14" t="s">
+      <c r="K5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="12">
         <v>6</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="S5" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T5" s="45" t="s">
+      <c r="T5" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="U5" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="35" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="51">
         <v>4</v>
       </c>
-      <c r="I6" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="38" t="s">
+      <c r="I6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="14" t="s">
+      <c r="K6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="57"/>
+      <c r="N6" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="12">
         <v>6</v>
       </c>
-      <c r="R6" s="29" t="s">
+      <c r="R6" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="U6" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="51">
         <v>5</v>
       </c>
-      <c r="I7" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="27" t="s">
+      <c r="I7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="57"/>
+      <c r="N7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="12">
         <v>6</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="S7" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="T7" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="U7" s="28" t="s">
+      <c r="U7" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="6" t="s">
         <v>123</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="51">
         <v>6</v>
       </c>
-      <c r="I8" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="14" t="s">
+      <c r="K8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="57"/>
+      <c r="N8" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="12">
         <v>6</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="S8" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T8" s="45" t="s">
+      <c r="T8" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="U8" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="51">
         <v>7</v>
       </c>
-      <c r="I9" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="s">
+      <c r="K9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="12">
         <v>6</v>
       </c>
-      <c r="R9" s="29" t="s">
+      <c r="R9" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S9" s="28" t="s">
+      <c r="S9" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="51">
         <v>8</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="K10" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="25" t="s">
+      <c r="N10" s="57"/>
+      <c r="O10" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="12">
         <v>6</v>
       </c>
-      <c r="R10" s="29" t="s">
+      <c r="R10" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S10" s="28" t="s">
+      <c r="S10" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T10" s="45" t="s">
+      <c r="T10" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="U10" s="28" t="s">
+      <c r="U10" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="51">
         <v>9</v>
       </c>
-      <c r="I11" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6" t="s">
+      <c r="K11" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="P11" s="40" t="s">
+      <c r="P11" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="R11" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S11" s="28" t="s">
+      <c r="S11" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="U11" s="28" t="s">
+      <c r="U11" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:21" ht="174" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="51">
         <v>10</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="4" t="s">
+      <c r="K12" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="25" t="s">
+      <c r="N12" s="57"/>
+      <c r="O12" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="P12" s="40" t="s">
+      <c r="P12" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="44">
+      <c r="Q12" s="12">
         <v>6</v>
       </c>
-      <c r="R12" s="29" t="s">
+      <c r="R12" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S12" s="28" t="s">
+      <c r="S12" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T12" s="45" t="s">
+      <c r="T12" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="U12" s="28" t="s">
+      <c r="U12" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:21" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="51">
         <v>11</v>
       </c>
-      <c r="I13" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="K13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="57"/>
+      <c r="N13" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="P13" s="40" t="s">
+      <c r="P13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="12">
         <v>6</v>
       </c>
-      <c r="R13" s="29" t="s">
+      <c r="R13" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S13" s="28" t="s">
+      <c r="S13" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T13" s="45" t="s">
+      <c r="T13" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="U13" s="28" t="s">
+      <c r="U13" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:21" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="51">
         <v>12</v>
       </c>
-      <c r="I14" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="27" t="s">
+      <c r="I14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="57"/>
+      <c r="N14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="12">
         <v>6</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="R14" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="S14" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T14" s="45" t="s">
+      <c r="T14" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="U14" s="28" t="s">
+      <c r="U14" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="51">
         <v>13</v>
       </c>
-      <c r="I15" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4" t="s">
+      <c r="K15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="57"/>
+      <c r="N15" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="P15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="44">
+      <c r="P15" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="12">
         <v>6</v>
       </c>
-      <c r="R15" s="29" t="s">
+      <c r="R15" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S15" s="28" t="s">
+      <c r="S15" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T15" s="45" t="s">
+      <c r="T15" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="U15" s="28" t="s">
+      <c r="U15" s="12" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="51">
         <v>14</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="4" t="s">
+      <c r="K16" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="25" t="s">
+      <c r="N16" s="57"/>
+      <c r="O16" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="P16" s="42" t="s">
+      <c r="P16" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="12">
         <v>6</v>
       </c>
-      <c r="R16" s="29" t="s">
+      <c r="R16" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S16" s="28" t="s">
+      <c r="S16" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T16" s="45" t="s">
+      <c r="T16" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="U16" s="28" t="s">
+      <c r="U16" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="51">
         <v>15</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="25" t="s">
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="P17" s="40" t="s">
+      <c r="P17" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="12">
         <v>8</v>
       </c>
-      <c r="R17" s="29" t="s">
+      <c r="R17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S17" s="28" t="s">
+      <c r="S17" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="T17" s="45" t="s">
+      <c r="T17" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="U17" s="28" t="s">
+      <c r="U17" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="51">
         <v>16</v>
       </c>
-      <c r="I18" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="I18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="25" t="s">
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="12">
         <v>7</v>
       </c>
-      <c r="R18" s="29" t="s">
+      <c r="R18" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S18" s="28" t="s">
+      <c r="S18" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="T18" s="45" t="s">
+      <c r="T18" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="U18" s="28" t="s">
+      <c r="U18" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="51">
         <v>17</v>
       </c>
-      <c r="I19" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="I19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="25" t="s">
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P19" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="44">
+      <c r="P19" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="12">
         <v>9</v>
       </c>
-      <c r="R19" s="29" t="s">
+      <c r="R19" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S19" s="28" t="s">
+      <c r="S19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="T19" s="45" t="s">
+      <c r="T19" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="U19" s="28" t="s">
+      <c r="U19" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="51">
         <v>18</v>
       </c>
-      <c r="I20" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="I20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="4" t="s">
+      <c r="K20" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6" t="s">
+      <c r="M20" s="57"/>
+      <c r="N20" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="P20" s="40" t="s">
+      <c r="P20" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="12">
         <v>6</v>
       </c>
-      <c r="R20" s="29" t="s">
+      <c r="R20" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S20" s="28" t="s">
+      <c r="S20" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T20" s="45" t="s">
+      <c r="T20" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="U20" s="28" t="s">
+      <c r="U20" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="51">
         <v>19</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="K21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="25" t="s">
+      <c r="N21" s="57"/>
+      <c r="O21" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="12">
         <v>6</v>
       </c>
-      <c r="R21" s="29" t="s">
+      <c r="R21" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S21" s="28" t="s">
+      <c r="S21" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T21" s="45" t="s">
+      <c r="T21" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="U21" s="28" t="s">
+      <c r="U21" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="31">
-        <v>20</v>
-      </c>
-      <c r="I22" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="51">
+        <v>20</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="4" t="s">
+      <c r="K22" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
+      <c r="M22" s="57"/>
+      <c r="N22" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="12">
         <v>6</v>
       </c>
-      <c r="R22" s="29" t="s">
+      <c r="R22" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S22" s="28" t="s">
+      <c r="S22" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T22" s="45" t="s">
+      <c r="T22" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="U22" s="28" t="s">
+      <c r="U22" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="6" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="51">
         <v>21</v>
       </c>
-      <c r="I23" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="I23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="4" t="s">
+      <c r="K23" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
+      <c r="M23" s="57"/>
+      <c r="N23" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="12">
         <v>6</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S23" s="28" t="s">
+      <c r="S23" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T23" s="45" t="s">
+      <c r="T23" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="U23" s="28" t="s">
+      <c r="U23" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="51">
         <v>22</v>
       </c>
-      <c r="I24" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="10" t="s">
+      <c r="I24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="25" t="s">
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="12">
         <v>8</v>
       </c>
-      <c r="R24" s="29" t="s">
+      <c r="R24" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S24" s="28" t="s">
+      <c r="S24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="T24" s="45" t="s">
+      <c r="T24" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="U24" s="28" t="s">
+      <c r="U24" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="51">
         <v>23</v>
       </c>
-      <c r="I25" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="I25" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="K25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="57"/>
+      <c r="N25" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="28">
+      <c r="P25" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="12">
         <v>6</v>
       </c>
-      <c r="R25" s="29" t="s">
+      <c r="R25" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S25" s="28" t="s">
+      <c r="S25" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T25" s="45" t="s">
+      <c r="T25" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="U25" s="28" t="s">
+      <c r="U25" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="51">
         <v>24</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="4" t="s">
+      <c r="K26" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="25" t="s">
+      <c r="N26" s="57"/>
+      <c r="O26" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="12">
         <v>6</v>
       </c>
-      <c r="R26" s="29" t="s">
+      <c r="R26" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S26" s="28" t="s">
+      <c r="S26" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T26" s="45" t="s">
+      <c r="T26" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="U26" s="28" t="s">
+      <c r="U26" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="51">
         <v>25</v>
       </c>
-      <c r="I27" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="I27" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="25" t="s">
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="12">
         <v>7</v>
       </c>
-      <c r="R27" s="29" t="s">
+      <c r="R27" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="T27" s="45" t="s">
+      <c r="T27" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="U27" s="28" t="s">
+      <c r="U27" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="51">
         <v>26</v>
       </c>
-      <c r="I28" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="I28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="4" t="s">
+      <c r="K28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="57"/>
+      <c r="N28" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="P28" s="42" t="s">
+      <c r="P28" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="12">
         <v>6</v>
       </c>
-      <c r="R28" s="29" t="s">
+      <c r="R28" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S28" s="28" t="s">
+      <c r="S28" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T28" s="45" t="s">
+      <c r="T28" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="U28" s="28" t="s">
+      <c r="U28" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="51">
         <v>27</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
+      <c r="K29" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="25" t="s">
+      <c r="N29" s="57"/>
+      <c r="O29" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="12">
         <v>6</v>
       </c>
-      <c r="R29" s="29" t="s">
+      <c r="R29" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S29" s="28" t="s">
+      <c r="S29" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T29" s="45" t="s">
+      <c r="T29" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="U29" s="28" t="s">
+      <c r="U29" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="51">
         <v>28</v>
       </c>
-      <c r="I30" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="I30" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="K30" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="57"/>
+      <c r="N30" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="P30" s="42" t="s">
+      <c r="P30" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="12">
         <v>6</v>
       </c>
-      <c r="R30" s="29" t="s">
+      <c r="R30" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S30" s="28" t="s">
+      <c r="S30" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T30" s="45" t="s">
+      <c r="T30" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="U30" s="28" t="s">
+      <c r="U30" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="51">
         <v>29</v>
       </c>
-      <c r="I31" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="I31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="25" t="s">
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="42" t="s">
+      <c r="P31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="12">
         <v>8</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S31" s="28" t="s">
+      <c r="S31" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="T31" s="45" t="s">
+      <c r="T31" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="U31" s="28" t="s">
+      <c r="U31" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="51">
         <v>30</v>
       </c>
-      <c r="I32" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="I32" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="25" t="s">
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P32" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="28">
+      <c r="P32" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="12">
         <v>6</v>
       </c>
-      <c r="R32" s="29" t="s">
+      <c r="R32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S32" s="28" t="s">
+      <c r="S32" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="T32" s="45" t="s">
+      <c r="T32" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="U32" s="12" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="6" t="s">
         <v>138</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="51">
         <v>31</v>
       </c>
-      <c r="I33" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="27" t="s">
+      <c r="I33" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="25" t="s">
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="28">
+      <c r="P33" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="12">
         <v>10</v>
       </c>
-      <c r="R33" s="29" t="s">
+      <c r="R33" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S33" s="28" t="s">
+      <c r="S33" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="T33" s="45" t="s">
+      <c r="T33" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="U33" s="28" t="s">
+      <c r="U33" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H34" s="31">
+      <c r="H34" s="51">
         <v>32</v>
       </c>
-      <c r="I34" s="71" t="s">
+      <c r="I34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="27" t="s">
+      <c r="J34" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="4" t="s">
+      <c r="K34" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="M34" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="25" t="s">
+      <c r="N34" s="57"/>
+      <c r="O34" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="P34" s="42" t="s">
+      <c r="P34" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="12">
         <v>6</v>
       </c>
-      <c r="R34" s="29" t="s">
+      <c r="R34" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S34" s="28" t="s">
+      <c r="S34" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T34" s="45" t="s">
+      <c r="T34" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="U34" s="28" t="s">
+      <c r="U34" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="51">
         <v>33</v>
       </c>
-      <c r="I35" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="27" t="s">
+      <c r="I35" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="25" t="s">
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="P35" s="42" t="s">
+      <c r="P35" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="12">
         <v>8</v>
       </c>
-      <c r="R35" s="29" t="s">
+      <c r="R35" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S35" s="28" t="s">
+      <c r="S35" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="T35" s="45" t="s">
+      <c r="T35" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="U35" s="28" t="s">
+      <c r="U35" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="26" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="51">
         <v>34</v>
       </c>
-      <c r="I36" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="27" t="s">
+      <c r="I36" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="25" t="s">
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P36" s="42" t="s">
+      <c r="P36" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="28">
+      <c r="Q36" s="12">
         <v>8</v>
       </c>
-      <c r="R36" s="29" t="s">
+      <c r="R36" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="S36" s="28" t="s">
+      <c r="S36" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="T36" s="45" t="s">
+      <c r="T36" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="U36" s="28" t="s">
+      <c r="U36" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="26" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="51">
         <v>35</v>
       </c>
-      <c r="I37" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="27" t="s">
+      <c r="I37" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="4" t="s">
+      <c r="K37" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6" t="s">
+      <c r="M37" s="57"/>
+      <c r="N37" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="O37" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="P37" s="42" t="s">
+      <c r="P37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="12">
         <v>6</v>
       </c>
-      <c r="R37" s="29" t="s">
+      <c r="R37" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S37" s="28" t="s">
+      <c r="S37" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T37" s="45" t="s">
+      <c r="T37" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="U37" s="28" t="s">
+      <c r="U37" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="21" t="s">
+      <c r="F38" s="9"/>
+      <c r="G38" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="H38" s="31">
+      <c r="H38" s="51">
         <v>36</v>
       </c>
-      <c r="I38" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="27" t="s">
+      <c r="I38" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="4" t="s">
+      <c r="K38" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6" t="s">
+      <c r="M38" s="57"/>
+      <c r="N38" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="O38" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="P38" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="28">
+      <c r="P38" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="12">
         <v>6</v>
       </c>
-      <c r="R38" s="29" t="s">
+      <c r="R38" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="S38" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T38" s="45" t="s">
+      <c r="T38" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="U38" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="22" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="51">
         <v>37</v>
       </c>
-      <c r="I39" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="10" t="s">
+      <c r="I39" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="4" t="s">
+      <c r="K39" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6" t="s">
+      <c r="M39" s="57"/>
+      <c r="N39" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="O39" s="25" t="s">
+      <c r="O39" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="P39" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="28">
+      <c r="P39" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="12">
         <v>6</v>
       </c>
-      <c r="R39" s="29" t="s">
+      <c r="R39" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S39" s="28" t="s">
+      <c r="S39" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T39" s="45" t="s">
+      <c r="T39" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="U39" s="28" t="s">
+      <c r="U39" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="22" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="51">
         <v>38</v>
       </c>
-      <c r="I40" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="I40" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="4" t="s">
+      <c r="K40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6" t="s">
+      <c r="M40" s="57"/>
+      <c r="N40" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="P40" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="44">
+      <c r="P40" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="12">
         <v>6</v>
       </c>
-      <c r="R40" s="29" t="s">
+      <c r="R40" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S40" s="28" t="s">
+      <c r="S40" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T40" s="45" t="s">
+      <c r="T40" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="U40" s="28" t="s">
+      <c r="U40" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="22" t="s">
+      <c r="F41" s="9"/>
+      <c r="G41" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="51">
         <v>39</v>
       </c>
-      <c r="I41" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="I41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="4" t="s">
+      <c r="K41" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="25" t="s">
+      <c r="N41" s="57"/>
+      <c r="O41" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="P41" s="42" t="s">
+      <c r="P41" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="28">
+      <c r="Q41" s="12">
         <v>6</v>
       </c>
-      <c r="R41" s="29" t="s">
+      <c r="R41" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="S41" s="28" t="s">
+      <c r="S41" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T41" s="45" t="s">
+      <c r="T41" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="U41" s="28" t="s">
+      <c r="U41" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="51">
         <v>40</v>
       </c>
-      <c r="I42" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="27" t="s">
+      <c r="I42" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="70" t="s">
+      <c r="K42" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="25" t="s">
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="P42" s="42" t="s">
+      <c r="P42" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="28"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="12"/>
     </row>
     <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="51">
         <v>41</v>
       </c>
-      <c r="I43" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="27" t="s">
+      <c r="I43" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43" s="4" t="s">
+      <c r="K43" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6" t="s">
+      <c r="M43" s="57"/>
+      <c r="N43" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="25" t="s">
+      <c r="O43" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P43" s="42" t="s">
+      <c r="P43" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="28">
+      <c r="Q43" s="12">
         <v>6</v>
       </c>
-      <c r="R43" s="29" t="s">
+      <c r="R43" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S43" s="28" t="s">
+      <c r="S43" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T43" s="45" t="s">
+      <c r="T43" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="U43" s="28" t="s">
+      <c r="U43" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="9" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="51">
         <v>42</v>
       </c>
-      <c r="I44" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="27" t="s">
+      <c r="I44" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="4" t="s">
+      <c r="K44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6" t="s">
+      <c r="M44" s="57"/>
+      <c r="N44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="25" t="s">
+      <c r="O44" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="P44" s="42" t="s">
+      <c r="P44" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Q44" s="28">
+      <c r="Q44" s="12">
         <v>6</v>
       </c>
-      <c r="R44" s="29" t="s">
+      <c r="R44" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="S44" s="28" t="s">
+      <c r="S44" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="T44" s="45" t="s">
+      <c r="T44" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="U44" s="28" t="s">
+      <c r="U44" s="12" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4354,187 +4332,187 @@
     <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4702,22 +4680,25 @@
     <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="257" spans="10:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="258" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
+      <c r="J258" s="21"/>
+      <c r="K258" s="21"/>
     </row>
     <row r="259" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
+      <c r="J259" s="21"/>
+      <c r="K259" s="21"/>
     </row>
     <row r="260" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J260" s="1"/>
-      <c r="K260" s="1"/>
+      <c r="J260" s="21"/>
+      <c r="K260" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4732,12 +4713,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4790,1929 +4765,1929 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="17" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="14" max="14" width="24.28515625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="2" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="2" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="2" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="2" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="2" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="2" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="2" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
     </row>
     <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
     </row>
     <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
     </row>
     <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
     </row>
     <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
     </row>
     <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
     </row>
     <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
     </row>
     <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
     </row>
     <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
     </row>
     <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
-      <c r="L123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
     </row>
     <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
     </row>
     <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
     </row>
     <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
     </row>
     <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
     </row>
     <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
-      <c r="L133" s="3"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="jBP43Ygmkaf/XXQd9p2qsCmmurQyMKyDaFEgn/Qk9Gra+umBoD1dk3kLtw/xlKjRm0riycGSI3TcAW5uqJdOTQ==" saltValue="VYSYz+t8F2nUrZOrs7JOVA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado08/guion06/Escaleta_LE_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta_LE_08_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -1267,6 +1272,54 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,54 +1389,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,7 +1449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1479,7 +1484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1690,9 +1695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="49" zoomScaleNormal="49" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,118 +1710,118 @@
     <col min="6" max="6" width="29.42578125" style="21" customWidth="1"/>
     <col min="7" max="7" width="46.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="11" style="61" customWidth="1"/>
+    <col min="9" max="9" width="11" style="38" customWidth="1"/>
     <col min="10" max="10" width="45.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="20" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="62" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="39" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="21" customWidth="1"/>
     <col min="18" max="18" width="23" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.7109375" style="3" customWidth="1"/>
     <col min="22" max="22" width="19.7109375" style="3" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="27" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="63.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1825,34 +1830,34 @@
       <c r="D3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="51">
+      <c r="H3" s="28">
         <v>1</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="53" t="s">
+      <c r="K3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>45</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="12">
@@ -1872,10 +1877,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1884,34 +1889,34 @@
       <c r="D4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H4" s="51">
+      <c r="H4" s="28">
         <v>2</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="28" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="53" t="s">
+      <c r="K4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31" t="s">
         <v>50</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="12">
@@ -1931,10 +1936,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1948,7 +1953,7 @@
       <c r="G5" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="28">
         <v>3</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -1957,20 +1962,20 @@
       <c r="J5" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K5" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="53" t="s">
+      <c r="K5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="P5" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="12">
@@ -1990,10 +1995,10 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -2007,7 +2012,7 @@
       <c r="G6" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="28">
         <v>4</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -2016,20 +2021,20 @@
       <c r="J6" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="53" t="s">
+      <c r="K6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34" t="s">
         <v>36</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="12">
@@ -2049,10 +2054,10 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -2066,7 +2071,7 @@
       <c r="G7" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="28">
         <v>5</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -2075,20 +2080,20 @@
       <c r="J7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="53" t="s">
+      <c r="K7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34" t="s">
         <v>43</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="P7" s="55" t="s">
+      <c r="P7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="12">
@@ -2108,10 +2113,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2125,7 +2130,7 @@
       <c r="G8" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="28">
         <v>6</v>
       </c>
       <c r="I8" s="23" t="s">
@@ -2134,20 +2139,20 @@
       <c r="J8" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="34" t="s">
         <v>51</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="55" t="s">
+      <c r="P8" s="32" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="12">
@@ -2167,10 +2172,10 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2188,7 +2193,7 @@
       <c r="G9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="28">
         <v>7</v>
       </c>
       <c r="I9" s="23" t="s">
@@ -2197,20 +2202,20 @@
       <c r="J9" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="12">
@@ -2230,10 +2235,10 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2251,7 +2256,7 @@
       <c r="G10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="28">
         <v>8</v>
       </c>
       <c r="I10" s="23" t="s">
@@ -2260,20 +2265,20 @@
       <c r="J10" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="57" t="s">
+      <c r="M10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="57"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="P10" s="58" t="s">
+      <c r="P10" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="12">
@@ -2293,10 +2298,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2314,7 +2319,7 @@
       <c r="G11" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="51">
+      <c r="H11" s="28">
         <v>9</v>
       </c>
       <c r="I11" s="23" t="s">
@@ -2323,18 +2328,18 @@
       <c r="J11" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="24"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57" t="s">
+      <c r="M11" s="34"/>
+      <c r="N11" s="34" t="s">
         <v>24</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="P11" s="58" t="s">
+      <c r="P11" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="12">
@@ -2354,10 +2359,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="174" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2375,7 +2380,7 @@
       <c r="G12" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="28">
         <v>10</v>
       </c>
       <c r="I12" s="23" t="s">
@@ -2384,20 +2389,20 @@
       <c r="J12" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="57"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="P12" s="58" t="s">
+      <c r="P12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="12">
@@ -2417,10 +2422,10 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2438,7 +2443,7 @@
       <c r="G13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13" s="28">
         <v>11</v>
       </c>
       <c r="I13" s="23" t="s">
@@ -2447,20 +2452,20 @@
       <c r="J13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57" t="s">
+      <c r="M13" s="34"/>
+      <c r="N13" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="P13" s="58" t="s">
+      <c r="P13" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="12">
@@ -2480,10 +2485,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2501,7 +2506,7 @@
       <c r="G14" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14" s="28">
         <v>12</v>
       </c>
       <c r="I14" s="23" t="s">
@@ -2510,20 +2515,20 @@
       <c r="J14" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57" t="s">
+      <c r="M14" s="34"/>
+      <c r="N14" s="34" t="s">
         <v>33</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="12">
@@ -2543,10 +2548,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2562,7 +2567,7 @@
       <c r="G15" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15" s="28">
         <v>13</v>
       </c>
       <c r="I15" s="23" t="s">
@@ -2571,21 +2576,21 @@
       <c r="J15" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57" t="s">
+      <c r="M15" s="34"/>
+      <c r="N15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="P15" s="58" t="s">
-        <v>20</v>
+      <c r="P15" s="35" t="s">
+        <v>19</v>
       </c>
       <c r="Q15" s="12">
         <v>6</v>
@@ -2604,10 +2609,10 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2621,7 +2626,7 @@
       <c r="G16" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="28">
         <v>14</v>
       </c>
       <c r="I16" s="23" t="s">
@@ -2630,20 +2635,20 @@
       <c r="J16" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="57"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="12">
@@ -2663,10 +2668,10 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2680,7 +2685,7 @@
       <c r="G17" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="28">
         <v>15</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -2689,18 +2694,18 @@
       <c r="J17" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K17" s="56" t="s">
+      <c r="K17" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
       <c r="O17" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="P17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="12">
@@ -2720,10 +2725,10 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2737,7 +2742,7 @@
       <c r="G18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18" s="28">
         <v>16</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -2746,18 +2751,18 @@
       <c r="J18" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
       <c r="O18" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="12">
@@ -2777,10 +2782,10 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2796,7 +2801,7 @@
       <c r="G19" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19" s="28">
         <v>17</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -2805,18 +2810,18 @@
       <c r="J19" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
       <c r="O19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="35" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="12">
@@ -2836,10 +2841,10 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2855,7 +2860,7 @@
       <c r="G20" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20" s="28">
         <v>18</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -2864,20 +2869,20 @@
       <c r="J20" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57" t="s">
+      <c r="M20" s="34"/>
+      <c r="N20" s="34" t="s">
         <v>121</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="12">
@@ -2897,10 +2902,10 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2916,7 +2921,7 @@
       <c r="G21" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="28">
         <v>19</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -2925,20 +2930,20 @@
       <c r="J21" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="K21" s="56" t="s">
+      <c r="K21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M21" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="57"/>
+      <c r="N21" s="34"/>
       <c r="O21" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="P21" s="58" t="s">
+      <c r="P21" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="12">
@@ -2958,10 +2963,10 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2977,7 +2982,7 @@
       <c r="G22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="28">
         <v>20</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -2986,20 +2991,20 @@
       <c r="J22" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57" t="s">
+      <c r="M22" s="34"/>
+      <c r="N22" s="34" t="s">
         <v>31</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="12">
@@ -3019,10 +3024,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -3038,7 +3043,7 @@
       <c r="G23" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="28">
         <v>21</v>
       </c>
       <c r="I23" s="23" t="s">
@@ -3047,20 +3052,20 @@
       <c r="J23" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57" t="s">
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
         <v>121</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="P23" s="58" t="s">
+      <c r="P23" s="35" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="12">
@@ -3080,10 +3085,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -3099,7 +3104,7 @@
       <c r="G24" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H24" s="51">
+      <c r="H24" s="28">
         <v>22</v>
       </c>
       <c r="I24" s="23" t="s">
@@ -3108,18 +3113,18 @@
       <c r="J24" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P24" s="59" t="s">
+      <c r="P24" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q24" s="12">
@@ -3139,10 +3144,10 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -3160,7 +3165,7 @@
       <c r="G25" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H25" s="51">
+      <c r="H25" s="28">
         <v>23</v>
       </c>
       <c r="I25" s="23" t="s">
@@ -3169,20 +3174,20 @@
       <c r="J25" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57" t="s">
+      <c r="M25" s="34"/>
+      <c r="N25" s="34" t="s">
         <v>24</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="59" t="s">
+      <c r="P25" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="12">
@@ -3202,10 +3207,10 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -3223,7 +3228,7 @@
       <c r="G26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="51">
+      <c r="H26" s="28">
         <v>24</v>
       </c>
       <c r="I26" s="23" t="s">
@@ -3232,20 +3237,20 @@
       <c r="J26" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="57" t="s">
+      <c r="M26" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="57"/>
+      <c r="N26" s="34"/>
       <c r="O26" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="P26" s="59" t="s">
+      <c r="P26" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="12">
@@ -3265,10 +3270,10 @@
       </c>
     </row>
     <row r="27" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -3286,7 +3291,7 @@
       <c r="G27" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="28">
         <v>25</v>
       </c>
       <c r="I27" s="23" t="s">
@@ -3295,18 +3300,18 @@
       <c r="J27" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="K27" s="56" t="s">
+      <c r="K27" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
       <c r="O27" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="P27" s="59" t="s">
+      <c r="P27" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q27" s="12">
@@ -3326,10 +3331,10 @@
       </c>
     </row>
     <row r="28" spans="1:21" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -3347,7 +3352,7 @@
       <c r="G28" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="51">
+      <c r="H28" s="28">
         <v>26</v>
       </c>
       <c r="I28" s="23" t="s">
@@ -3356,20 +3361,20 @@
       <c r="J28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="56" t="s">
+      <c r="K28" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57" t="s">
+      <c r="M28" s="34"/>
+      <c r="N28" s="34" t="s">
         <v>45</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="P28" s="59" t="s">
+      <c r="P28" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q28" s="12">
@@ -3389,10 +3394,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3410,7 +3415,7 @@
       <c r="G29" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="28">
         <v>27</v>
       </c>
       <c r="I29" s="23" t="s">
@@ -3419,20 +3424,20 @@
       <c r="J29" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="K29" s="56" t="s">
+      <c r="K29" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="57" t="s">
+      <c r="M29" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="57"/>
+      <c r="N29" s="34"/>
       <c r="O29" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="P29" s="59" t="s">
+      <c r="P29" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q29" s="12">
@@ -3452,8 +3457,8 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="5" t="s">
         <v>150</v>
       </c>
@@ -3467,7 +3472,7 @@
       <c r="G30" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="28">
         <v>28</v>
       </c>
       <c r="I30" s="23" t="s">
@@ -3476,20 +3481,20 @@
       <c r="J30" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="56" t="s">
+      <c r="K30" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L30" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57" t="s">
+      <c r="M30" s="34"/>
+      <c r="N30" s="34" t="s">
         <v>30</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="P30" s="59" t="s">
+      <c r="P30" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="12">
@@ -3509,10 +3514,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -3528,7 +3533,7 @@
       <c r="G31" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="28">
         <v>29</v>
       </c>
       <c r="I31" s="23" t="s">
@@ -3537,18 +3542,18 @@
       <c r="J31" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
       <c r="O31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="P31" s="59" t="s">
+      <c r="P31" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="12">
@@ -3568,8 +3573,8 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="5" t="s">
         <v>150</v>
       </c>
@@ -3583,7 +3588,7 @@
       <c r="G32" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H32" s="51">
+      <c r="H32" s="28">
         <v>30</v>
       </c>
       <c r="I32" s="23" t="s">
@@ -3592,18 +3597,18 @@
       <c r="J32" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
       <c r="O32" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P32" s="59" t="s">
+      <c r="P32" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="12">
@@ -3623,10 +3628,10 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3642,7 +3647,7 @@
       <c r="G33" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="28">
         <v>31</v>
       </c>
       <c r="I33" s="23" t="s">
@@ -3651,19 +3656,19 @@
       <c r="J33" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
       <c r="O33" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P33" s="59" t="s">
-        <v>20</v>
+      <c r="P33" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="Q33" s="12">
         <v>10</v>
@@ -3682,10 +3687,10 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -3699,7 +3704,7 @@
       <c r="G34" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="H34" s="51">
+      <c r="H34" s="28">
         <v>32</v>
       </c>
       <c r="I34" s="23" t="s">
@@ -3708,20 +3713,20 @@
       <c r="J34" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M34" s="57" t="s">
+      <c r="M34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="57"/>
+      <c r="N34" s="34"/>
       <c r="O34" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="P34" s="59" t="s">
+      <c r="P34" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="12">
@@ -3741,10 +3746,10 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -3758,7 +3763,7 @@
       <c r="G35" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H35" s="51">
+      <c r="H35" s="28">
         <v>33</v>
       </c>
       <c r="I35" s="23" t="s">
@@ -3767,18 +3772,18 @@
       <c r="J35" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="K35" s="56" t="s">
+      <c r="K35" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
       <c r="O35" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="P35" s="59" t="s">
+      <c r="P35" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="12">
@@ -3798,10 +3803,10 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -3817,7 +3822,7 @@
       <c r="G36" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H36" s="51">
+      <c r="H36" s="28">
         <v>34</v>
       </c>
       <c r="I36" s="23" t="s">
@@ -3826,18 +3831,18 @@
       <c r="J36" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="K36" s="56" t="s">
+      <c r="K36" s="33" t="s">
         <v>19</v>
       </c>
       <c r="L36" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
       <c r="O36" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="P36" s="59" t="s">
+      <c r="P36" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="12">
@@ -3857,10 +3862,10 @@
       </c>
     </row>
     <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -3876,7 +3881,7 @@
       <c r="G37" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="28">
         <v>35</v>
       </c>
       <c r="I37" s="23" t="s">
@@ -3885,20 +3890,20 @@
       <c r="J37" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57" t="s">
+      <c r="M37" s="34"/>
+      <c r="N37" s="34" t="s">
         <v>121</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="P37" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="12">
@@ -3918,10 +3923,10 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -3932,10 +3937,10 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H38" s="51">
+      <c r="H38" s="28">
         <v>36</v>
       </c>
       <c r="I38" s="23" t="s">
@@ -3944,21 +3949,21 @@
       <c r="J38" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="K38" s="56" t="s">
+      <c r="K38" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L38" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57" t="s">
+      <c r="M38" s="34"/>
+      <c r="N38" s="34" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="P38" s="59" t="s">
-        <v>20</v>
+      <c r="P38" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="Q38" s="12">
         <v>6</v>
@@ -3977,10 +3982,10 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -3994,7 +3999,7 @@
       <c r="G39" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H39" s="51">
+      <c r="H39" s="28">
         <v>37</v>
       </c>
       <c r="I39" s="23" t="s">
@@ -4003,21 +4008,21 @@
       <c r="J39" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57" t="s">
+      <c r="M39" s="34"/>
+      <c r="N39" s="34" t="s">
         <v>35</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="P39" s="59" t="s">
-        <v>20</v>
+      <c r="P39" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="Q39" s="12">
         <v>6</v>
@@ -4036,10 +4041,10 @@
       </c>
     </row>
     <row r="40" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4053,7 +4058,7 @@
       <c r="G40" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H40" s="51">
+      <c r="H40" s="28">
         <v>38</v>
       </c>
       <c r="I40" s="23" t="s">
@@ -4062,21 +4067,21 @@
       <c r="J40" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="K40" s="56" t="s">
+      <c r="K40" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57" t="s">
+      <c r="M40" s="34"/>
+      <c r="N40" s="34" t="s">
         <v>36</v>
       </c>
       <c r="O40" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="P40" s="59" t="s">
-        <v>20</v>
+      <c r="P40" s="36" t="s">
+        <v>19</v>
       </c>
       <c r="Q40" s="12">
         <v>6</v>
@@ -4095,10 +4100,10 @@
       </c>
     </row>
     <row r="41" spans="1:21" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -4112,7 +4117,7 @@
       <c r="G41" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="51">
+      <c r="H41" s="28">
         <v>39</v>
       </c>
       <c r="I41" s="23" t="s">
@@ -4121,20 +4126,20 @@
       <c r="J41" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="K41" s="56" t="s">
+      <c r="K41" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M41" s="57" t="s">
+      <c r="M41" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N41" s="57"/>
+      <c r="N41" s="34"/>
       <c r="O41" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="P41" s="59" t="s">
+      <c r="P41" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q41" s="12">
@@ -4154,10 +4159,10 @@
       </c>
     </row>
     <row r="42" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -4171,7 +4176,7 @@
       <c r="G42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H42" s="51">
+      <c r="H42" s="28">
         <v>40</v>
       </c>
       <c r="I42" s="23" t="s">
@@ -4180,18 +4185,18 @@
       <c r="J42" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="K42" s="56" t="s">
+      <c r="K42" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
       <c r="O42" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="P42" s="59" t="s">
+      <c r="P42" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q42" s="12"/>
@@ -4201,10 +4206,10 @@
       <c r="U42" s="12"/>
     </row>
     <row r="43" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4218,7 +4223,7 @@
       <c r="G43" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="51">
+      <c r="H43" s="28">
         <v>41</v>
       </c>
       <c r="I43" s="23" t="s">
@@ -4227,20 +4232,20 @@
       <c r="J43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57" t="s">
+      <c r="M43" s="34"/>
+      <c r="N43" s="34" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="P43" s="59" t="s">
+      <c r="P43" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q43" s="12">
@@ -4260,10 +4265,10 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -4277,7 +4282,7 @@
       <c r="G44" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="H44" s="51">
+      <c r="H44" s="28">
         <v>42</v>
       </c>
       <c r="I44" s="23" t="s">
@@ -4286,20 +4291,20 @@
       <c r="J44" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K44" s="56" t="s">
+      <c r="K44" s="33" t="s">
         <v>20</v>
       </c>
       <c r="L44" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57" t="s">
+      <c r="M44" s="34"/>
+      <c r="N44" s="34" t="s">
         <v>52</v>
       </c>
       <c r="O44" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="P44" s="59" t="s">
+      <c r="P44" s="36" t="s">
         <v>19</v>
       </c>
       <c r="Q44" s="12">
